--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/dataDriven/src/test/resources/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/dev/selenium/dataDriven/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3A462CB-A87B-514C-93DD-F909FB9560C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444B9859-E0EC-9F47-8256-BB1F9C3874A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{151CB6D0-6D2C-F246-958A-87C0BE503B48}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,6 +31,32 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>pcode</t>
+  </si>
+  <si>
+    <t>Olly</t>
+  </si>
+  <si>
+    <t>Bula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer added successfully </t>
+  </si>
+  <si>
+    <t>alertMsg</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -64,8 +90,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +409,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90664775-5E48-BA4B-8E77-262603C3F658}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>